--- a/biology/Botanique/Sipanea/Sipanea.xlsx
+++ b/biology/Botanique/Sipanea/Sipanea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sipanea est un genre de plantes à fleurs néotropicale, appartenant à la famille des Rubiaceae, comptant 22 à 40 espèces, et dont l'espèce type est Sipanea pratensis Aubl.. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sipanea regroupe des herbacées annuelles ou pérennes, terrestres, non armées, à tiges dressées, étalées ou rampantes. 
 Les feuilles sont opposées, sessiles à pétiolées, à nervation non linéolée.
@@ -525,8 +539,8 @@
 Les anthères sont linéaires, dorsifixes, incluses ou partiellement extirpées. Ovaire à 2 locules.
 Les ovules sont nombreux dans chaque loge, sur des placentas axiles. 
 Le fruit est une capsule, ellipsoïde, chartacée, loculicide à partir de l'apex.
-Les graines sont petites, anguleuses à testa fovéolé-réticulé[2].
-La phylogénie des Sipanea a été étudiée[3].
+Les graines sont petites, anguleuses à testa fovéolé-réticulé.
+La phylogénie des Sipanea a été étudiée.
 </t>
         </is>
       </c>
@@ -555,9 +569,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sipanea est un genre néotropical représenté de l'Amérique centrale, au Paraguay en passant par la Colombie, le Venezuela, le Guyana, le Suriname, la Guyane, le Pérou, le Brésil, et la Bolivie[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sipanea est un genre néotropical représenté de l'Amérique centrale, au Paraguay en passant par la Colombie, le Venezuela, le Guyana, le Suriname, la Guyane, le Pérou, le Brésil, et la Bolivie.
 </t>
         </is>
       </c>
@@ -586,9 +602,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (21 février 2021)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (21 février 2021) :
 Sipanea ayangannensis Steyerm.
 Sipanea biflora (Rottb.) Cham. &amp; Schltdl.
 Sipanea carrenoi Steyerm.
@@ -612,7 +630,7 @@
 Sipanea veris S.Moore
 Sipanea wilson-brownei Cowan
 Virecta paniculata G.Don
-Selon Tropicos                                           (21 février 2021)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (21 février 2021) (Attention liste brute contenant possiblement des synonymes) :
 Sipanea acinifolia Spruce ex Sprague, 1905
 Sipanea angustifolia A. Rich., 1830
 Sipanea ayangannensis Steyerm., 1967
@@ -624,14 +642,14 @@
 Sipanea colombiana Wernham, 1917
 Sipanea coppenamensis Bremek., 1934
 Sipanea cowanii Steyerm., 1967
-Sipanea dichotoma Kunth, 1818 [1820]
+Sipanea dichotoma Kunth, 1818 
 Sipanea elatior A. Rich. ex DC., 1830
 Sipanea erythraeoides Cham., 1834
 Sipanea galioides Wernham, 1917
 Sipanea glaberrima (Bremek.) Steyerm., 1967
 Sipanea glabrata Wernham, 1917
 Sipanea gleasonii Steyerm., 1967
-Sipanea glomerata Kunth, 1818 [1820]
+Sipanea glomerata Kunth, 1818 
 Sipanea hispida Benth. ex Wernham, 1917
 Sipanea hispida Spruce ex K. Schum., 1889
 Sipanea limnophila Spruce ex Hook. f., 1868
@@ -650,7 +668,7 @@
 Sipanea spraguei Wernham, 1917
 Sipanea stahelii Bremek., 1934
 Sipanea trianae Wernham, 1917
-Sipanea trichantha Miq., 1844 [1845]
+Sipanea trichantha Miq., 1844 
 Sipanea veris S. Moore, 1895
 Sipanea wilson-brownei R.S. Cowan, 1952
 </t>
@@ -681,9 +699,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose la diagnose suivante[5] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose la diagnose suivante : 
 « SIPANEA. (Tabula 56.) 
 CAL. Perianthium monophyllum, turbinatum, ſtriatum, ad apicem contractum, limbo quinquepartito ; laciniis anguſtis, acutis.
 COR. monopetala, hypocrateriformis ; tubus longus, diſco ſupra germen infertus ; faux vemricofa, limbus quinquefkius, expanſus, ſubrotundus.
